--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26950" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -94,20 +94,95 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -115,9 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,22 +214,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,35 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,46 +232,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,25 +252,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,49 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,103 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,11 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +515,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,25 +544,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,143 +576,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1068,19 +1065,19 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" customWidth="1"/>
+    <col min="2" max="2" width="10.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="37.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1125,13 +1122,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1152,13 +1149,13 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>500</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1169,13 +1166,13 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>500</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1186,13 +1183,13 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>500</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1203,13 +1200,13 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>500</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1220,13 +1217,13 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>500</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="13160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>UnlockKongfu</t>
   </si>
   <si>
-    <t>1|20;2|20</t>
+    <t>1001|20;1002|20</t>
   </si>
   <si>
     <t>XiangLong18Zhang|XiangLong19Zhang</t>
@@ -72,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -93,6 +93,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -101,69 +131,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,54 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,73 +252,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,109 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,15 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -481,21 +472,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,7 +495,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,8 +503,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,16 +549,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,19 +1065,19 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" customWidth="1"/>
-    <col min="2" max="2" width="10.6272727272727" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="37.1272727272727" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,119 +93,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -214,6 +101,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -223,15 +230,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,43 +252,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,139 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -472,65 +481,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,7 +504,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -58,13 +58,25 @@
     <t>UnlockKongfu</t>
   </si>
   <si>
-    <t>1001|20;1002|20</t>
+    <t>1001|30;1002|80</t>
   </si>
   <si>
     <t>XiangLong18Zhang|XiangLong19Zhang</t>
   </si>
   <si>
+    <t>1001|200;1004|20</t>
+  </si>
+  <si>
     <t>XiangLong19Zhang</t>
+  </si>
+  <si>
+    <t>1001|2000;1004|400</t>
+  </si>
+  <si>
+    <t>1001|20000;1004|4000</t>
+  </si>
+  <si>
+    <t>1003|12000;1004|25000</t>
   </si>
 </sst>
 </file>
@@ -72,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -94,114 +106,108 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +219,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,16 +242,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,11 +473,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,16 +518,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -505,21 +547,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,31 +570,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,19 +588,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,112 +609,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,16 +1077,16 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
@@ -1167,16 +1179,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1184,16 +1196,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1201,16 +1213,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>500</v>
+        <v>65000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1218,16 +1230,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -86,8 +86,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,8 +105,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,6 +189,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,75 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,38 +242,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +473,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -489,6 +507,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -499,21 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,45 +570,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1077,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1168,7 +1168,7 @@
         <v>500</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -1185,7 +1185,7 @@
         <v>2200</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -1202,7 +1202,7 @@
         <v>12000</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -1219,7 +1219,7 @@
         <v>65000</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1236,7 +1236,7 @@
         <v>180000</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -31,7 +31,16 @@
     <t>升级条件</t>
   </si>
   <si>
-    <t>解锁功夫</t>
+    <t>显示解锁功夫</t>
+  </si>
+  <si>
+    <t>功夫池</t>
+  </si>
+  <si>
+    <t>抄经时长，秒</t>
+  </si>
+  <si>
+    <t>抄经位</t>
   </si>
   <si>
     <t>A</t>
@@ -58,25 +67,49 @@
     <t>UnlockKongfu</t>
   </si>
   <si>
+    <t>KongfuList</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
     <t>1001|30;1002|80</t>
   </si>
   <si>
-    <t>XiangLong18Zhang|XiangLong19Zhang</t>
+    <t>1001;1002</t>
+  </si>
+  <si>
+    <t>1001|5;1002|5</t>
   </si>
   <si>
     <t>1001|200;1004|20</t>
   </si>
   <si>
-    <t>XiangLong19Zhang</t>
+    <t>1003;1004</t>
+  </si>
+  <si>
+    <t>1001|5;1002|5;1003|5;1004|5</t>
   </si>
   <si>
     <t>1001|2000;1004|400</t>
   </si>
   <si>
+    <t>2001;2002</t>
+  </si>
+  <si>
     <t>1001|20000;1004|4000</t>
   </si>
   <si>
+    <t>2003;2004</t>
+  </si>
+  <si>
     <t>1003|12000;1004|25000</t>
+  </si>
+  <si>
+    <t>3001;3002</t>
   </si>
 </sst>
 </file>
@@ -107,17 +140,113 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,95 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -226,24 +266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,19 +297,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,43 +435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,115 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,11 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +545,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -523,6 +577,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -531,55 +603,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,140 +621,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1072,24 +1108,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,141 +1145,222 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>500</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>120</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2200</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
+        <v>120</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12000</v>
+      </c>
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2">
+        <v>120</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>65000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>120</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>500</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2200</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2">
+        <v>120</v>
+      </c>
+      <c r="H9" s="2">
         <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>65000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>180000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Seat</t>
   </si>
   <si>
-    <t>1001|30;1002|80</t>
+    <t>1001|40;1002|80</t>
   </si>
   <si>
     <t>1001;1002</t>
@@ -85,7 +85,10 @@
     <t>1001|5;1002|5</t>
   </si>
   <si>
-    <t>1001|200;1004|20</t>
+    <t>主木</t>
+  </si>
+  <si>
+    <t>1001|180;1004|20</t>
   </si>
   <si>
     <t>1003;1004</t>
@@ -94,19 +97,19 @@
     <t>1001|5;1002|5;1003|5;1004|5</t>
   </si>
   <si>
-    <t>1001|2000;1004|400</t>
+    <t>1001|1200;1004|240</t>
   </si>
   <si>
     <t>2001;2002</t>
   </si>
   <si>
-    <t>1001|20000;1004|4000</t>
+    <t>1001|8000;1004|1600</t>
   </si>
   <si>
     <t>2003;2004</t>
   </si>
   <si>
-    <t>1003|12000;1004|25000</t>
+    <t>1003|6000;1004|12000</t>
   </si>
   <si>
     <t>3001;3002</t>
@@ -147,75 +150,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,23 +180,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,6 +202,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -276,7 +250,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +300,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,30 +510,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -545,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,7 +552,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,8 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,16 +624,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,119 +642,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,9 +762,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1108,15 +1112,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
@@ -1233,23 +1237,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>500</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="2">
@@ -1258,25 +1262,34 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
         <v>2200</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>120</v>
@@ -1284,24 +1297,33 @@
       <c r="H6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3">
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>360</v>
+      </c>
+      <c r="M6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
         <v>12000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="2">
@@ -1310,24 +1332,33 @@
       <c r="H7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3">
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M7" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
         <v>65000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="2">
@@ -1336,24 +1367,33 @@
       <c r="H8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>16000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
         <v>180000</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="2">
@@ -1362,10 +1402,87 @@
       <c r="H9" s="2">
         <v>4</v>
       </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="9:11">
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="9:11">
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="10:11">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="11:11">
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="11:11">
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="11:11">
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="9:11">
+      <c r="I34" s="4"/>
+      <c r="K34" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
-    <sortCondition ref="A5"/>
+  <sortState ref="I12:K36">
+    <sortCondition ref="I12"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25690" windowHeight="14910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>1001|5;1002|5</t>
-  </si>
-  <si>
-    <t>主木</t>
   </si>
   <si>
     <t>1001|180;1004|20</t>
@@ -141,31 +138,130 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,106 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,43 +297,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,55 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,79 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +531,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -550,24 +580,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,171 +603,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,28 +1109,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="I5:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.3727272727273" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,22 +1259,14 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>2200</v>
@@ -1286,10 +1275,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>120</v>
@@ -1297,22 +1286,14 @@
       <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>360</v>
-      </c>
-      <c r="M6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>12000</v>
@@ -1321,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
@@ -1332,22 +1313,14 @@
       <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M7" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>65000</v>
@@ -1356,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
@@ -1367,22 +1340,15 @@
       <c r="H8" s="2">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>16000</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>180000</v>
@@ -1391,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
@@ -1402,13 +1368,7 @@
       <c r="H9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="2">
-        <v>12000</v>
-      </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" s="3"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25690" windowHeight="14910"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -85,7 +85,10 @@
     <t>1001|5;1002|5</t>
   </si>
   <si>
-    <t>1001|180;1004|20</t>
+    <t>主木</t>
+  </si>
+  <si>
+    <t>1001|180;1004|75</t>
   </si>
   <si>
     <t>1003;1004</t>
@@ -94,19 +97,19 @@
     <t>1001|5;1002|5;1003|5;1004|5</t>
   </si>
   <si>
-    <t>1001|1200;1004|240</t>
+    <t>1001|1200;1004|500</t>
   </si>
   <si>
     <t>2001;2002</t>
   </si>
   <si>
-    <t>1001|8000;1004|1600</t>
+    <t>1001|8000;1004|3200</t>
   </si>
   <si>
     <t>2003;2004</t>
   </si>
   <si>
-    <t>1003|6000;1004|12000</t>
+    <t>1003|12000;1004|24000</t>
   </si>
   <si>
     <t>3001;3002</t>
@@ -138,16 +141,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +201,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -169,17 +233,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,97 +284,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -297,187 +300,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +509,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -517,15 +568,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,32 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,31 +606,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,137 +624,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,7 +765,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1109,28 +1117,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="I5:M10"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,14 +1267,22 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>2200</v>
@@ -1275,10 +1291,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>120</v>
@@ -1286,14 +1302,22 @@
       <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>360</v>
+      </c>
+      <c r="M6" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>12000</v>
@@ -1302,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
@@ -1313,14 +1337,22 @@
       <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M7" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>65000</v>
@@ -1329,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
@@ -1340,15 +1372,22 @@
       <c r="H8" s="2">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>16000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>180000</v>
@@ -1357,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
@@ -1368,81 +1407,103 @@
       <c r="H9" s="2">
         <v>4</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="2">
+        <v>24000</v>
+      </c>
     </row>
     <row r="19" spans="9:11">
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="10:11">
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="10:11">
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="10:11">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="10:12">
+      <c r="J20" s="5"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="10:12">
+      <c r="J21" s="5"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="10:12">
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="10:11">
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="10:12">
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="9:11">
-      <c r="I24" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="9:12">
+      <c r="I24" s="5"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="10:11">
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="10:12">
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="10:11">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="10:12">
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="10:11">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="10:12">
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="10:11">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="10:12">
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="9:11">
-      <c r="I29" s="4"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="9:12">
+      <c r="I29" s="5"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="11:11">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="11:12">
       <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="11:11">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="10:12">
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="11:11">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="11:12">
       <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="11:11">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="11:12">
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="9:11">
-      <c r="I34" s="4"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="9:12">
+      <c r="I34" s="5"/>
       <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="12:12">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="10:12">
+      <c r="J36" s="5"/>
+      <c r="L36" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="I12:K36">
-    <sortCondition ref="I12"/>
+  <sortState ref="J14:L38">
+    <sortCondition ref="J14"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -138,9 +138,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +162,43 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,14 +213,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,92 +243,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,18 +297,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,79 +411,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,79 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,16 +507,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +526,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,26 +569,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,31 +603,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,109 +621,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,22 +744,10 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="I5:M10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1254,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1363,7 +1363,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -109,7 +109,7 @@
     <t>2003;2004</t>
   </si>
   <si>
-    <t>1003|12000;1004|24000</t>
+    <t>1003|10000;1004|24000</t>
   </si>
   <si>
     <t>3001;3002</t>
@@ -121,9 +121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -141,58 +141,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -203,39 +151,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,31 +165,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +179,111 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,31 +306,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,139 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,8 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,30 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,6 +544,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,13 +583,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,148 +624,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1122,7 +1116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1305,7 +1299,7 @@
       <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>360</v>
       </c>
       <c r="M6" s="2">
@@ -1410,40 +1404,40 @@
       <c r="K9" s="3">
         <v>5</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="2">
         <v>24000</v>
       </c>
     </row>
     <row r="19" spans="9:11">
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="10:12">
-      <c r="J20" s="5"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="10:12">
-      <c r="J21" s="5"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="10:12">
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="10:12">
       <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="9:12">
-      <c r="I24" s="5"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="10:12">
@@ -1467,7 +1461,7 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="9:12">
-      <c r="I29" s="5"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1490,7 +1484,7 @@
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="9:12">
-      <c r="I34" s="5"/>
+      <c r="I34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
@@ -1498,7 +1492,7 @@
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="10:12">
-      <c r="J36" s="5"/>
+      <c r="J36" s="3"/>
       <c r="L36" s="3"/>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -76,7 +76,7 @@
     <t>Seat</t>
   </si>
   <si>
-    <t>1001|40;1002|80</t>
+    <t>1001|100;1002|150</t>
   </si>
   <si>
     <t>1001;1002</t>
@@ -88,7 +88,7 @@
     <t>主木</t>
   </si>
   <si>
-    <t>1001|180;1004|75</t>
+    <t>1001|400;1004|150</t>
   </si>
   <si>
     <t>1003;1004</t>
@@ -97,19 +97,19 @@
     <t>1001|5;1002|5;1003|5;1004|5</t>
   </si>
   <si>
-    <t>1001|1200;1004|500</t>
+    <t>1001|1800;1004|1200</t>
   </si>
   <si>
     <t>2001;2002</t>
   </si>
   <si>
-    <t>1001|8000;1004|3200</t>
+    <t>1001|3000;1004|2200</t>
   </si>
   <si>
     <t>2003;2004</t>
   </si>
   <si>
-    <t>1003|10000;1004|24000</t>
+    <t>1003|1400;1004|3200</t>
   </si>
   <si>
     <t>3001;3002</t>
@@ -122,8 +122,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -141,6 +141,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -149,11 +171,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,126 +284,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -300,31 +300,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,151 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,15 +509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -533,43 +524,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,11 +566,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,137 +624,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,6 +765,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1111,12 +1115,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1268,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1279,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -1300,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="3">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="M6" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1314,7 +1318,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -1335,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="L7" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M7" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1349,7 +1353,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="2">
-        <v>65000</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -1370,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="L8" s="3">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M8" s="2">
-        <v>3200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1384,7 +1388,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="2">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -1406,98 +1410,115 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="2">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="9:12">
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="10:12">
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="10:12">
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="10:12">
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="10:12">
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="9:12">
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="10:12">
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="10:12">
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="10:12">
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="10:12">
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="9:12">
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="11:12">
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="10:12">
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="11:12">
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="11:12">
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="9:12">
       <c r="I34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="12:12">
-      <c r="L35" s="3"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="10:12">
       <c r="J36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="12:12">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="12:12">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="11:12">
+      <c r="K39" s="5"/>
+      <c r="L39" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="J14:L38">
-    <sortCondition ref="J14"/>
+  <sortState ref="K17:L41">
+    <sortCondition ref="K17"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -82,7 +82,7 @@
     <t>1001;1002</t>
   </si>
   <si>
-    <t>1001|5;1002|5</t>
+    <t>1001|10;1002|10</t>
   </si>
   <si>
     <t>主木</t>
@@ -94,7 +94,7 @@
     <t>1003;1004</t>
   </si>
   <si>
-    <t>1001|5;1002|5;1003|5;1004|5</t>
+    <t>1001|10;1002|10;1003|10;1004|10</t>
   </si>
   <si>
     <t>1001|1800;1004|1200</t>
@@ -103,16 +103,25 @@
     <t>2001;2002</t>
   </si>
   <si>
+    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002;5</t>
+  </si>
+  <si>
     <t>1001|3000;1004|2200</t>
   </si>
   <si>
     <t>2003;2004</t>
   </si>
   <si>
+    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002;5|2003|5;2004|5</t>
+  </si>
+  <si>
     <t>1003|1400;1004|3200</t>
   </si>
   <si>
     <t>3001;3002</t>
+  </si>
+  <si>
+    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002;5|2003|5;2004|5;3001|5;3002|5</t>
   </si>
 </sst>
 </file>
@@ -121,8 +130,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -142,22 +151,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,100 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +254,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -300,13 +309,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,121 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,43 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,10 +533,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -542,11 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,57 +615,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,145 +633,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1126,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1260,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1295,7 +1301,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1327,10 +1333,10 @@
         <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1350,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>6000</v>
@@ -1359,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -1385,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>11000</v>
@@ -1394,13 +1400,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1414,107 +1420,107 @@
       </c>
     </row>
     <row r="17" spans="12:12">
-      <c r="L17" s="4"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="12:12">
-      <c r="L18" s="4"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="9:12">
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="10:12">
       <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="10:12">
       <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="10:12">
       <c r="J22" s="3"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="10:12">
       <c r="J23" s="3"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="9:12">
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="10:12">
       <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="10:12">
       <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="10:12">
       <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="10:12">
       <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="9:12">
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="11:12">
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="10:12">
       <c r="J31" s="3"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="11:12">
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="11:12">
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" spans="9:12">
       <c r="I34" s="3"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" spans="12:12">
-      <c r="L35" s="4"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" spans="10:12">
       <c r="J36" s="3"/>
-      <c r="L36" s="4"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="12:12">
-      <c r="L37" s="4"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" spans="12:12">
-      <c r="L38" s="4"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="5"/>
-      <c r="L39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="3"/>
     </row>
   </sheetData>
   <sortState ref="K17:L41">

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>2001;2002</t>
   </si>
   <si>
-    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002;5</t>
+    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002|5</t>
   </si>
   <si>
     <t>1001|3000;1004|2200</t>
@@ -112,7 +112,7 @@
     <t>2003;2004</t>
   </si>
   <si>
-    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002;5|2003|5;2004|5</t>
+    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002|5;2003|5;2004|5</t>
   </si>
   <si>
     <t>1003|1400;1004|3200</t>
@@ -121,7 +121,7 @@
     <t>3001;3002</t>
   </si>
   <si>
-    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002;5|2003|5;2004|5;3001|5;3002|5</t>
+    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002|5;2003|5;2004|5;3001|5;3002|5</t>
   </si>
 </sst>
 </file>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,6 +150,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -157,8 +179,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -166,12 +210,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -181,9 +241,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,30 +255,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,62 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,13 +309,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,25 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,49 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,85 +477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,21 +519,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -544,35 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +557,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -621,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,133 +633,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,23 +1126,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.9090909090909" style="2" customWidth="1"/>
+    <col min="6" max="6" width="78.0909090909091" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.3727272727273" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,54 +150,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,40 +198,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,35 +272,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,31 +309,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,67 +453,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,73 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,25 +519,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,17 +557,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,15 +588,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,16 +606,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,133 +633,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,23 +1126,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.9090909090909" style="2" customWidth="1"/>
-    <col min="6" max="6" width="78.0909090909091" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.9083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="78.0916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="2">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1336,7 +1336,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="2">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1371,7 +1371,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="2">
-        <v>300</v>
+        <v>1080</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -1406,7 +1406,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Seat</t>
   </si>
   <si>
-    <t>1001|100;1002|150</t>
+    <t>1001|50;1002|15</t>
   </si>
   <si>
     <t>1001;1002</t>
@@ -85,10 +85,7 @@
     <t>1001|10;1002|10</t>
   </si>
   <si>
-    <t>主木</t>
-  </si>
-  <si>
-    <t>1001|400;1004|150</t>
+    <t>1003|150;1002|120</t>
   </si>
   <si>
     <t>1003;1004</t>
@@ -97,7 +94,7 @@
     <t>1001|10;1002|10;1003|10;1004|10</t>
   </si>
   <si>
-    <t>1001|1800;1004|1200</t>
+    <t>1003|600;1002|400</t>
   </si>
   <si>
     <t>2001;2002</t>
@@ -106,7 +103,7 @@
     <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002|5</t>
   </si>
   <si>
-    <t>1001|3000;1004|2200</t>
+    <t>1003|1600;1002|1250</t>
   </si>
   <si>
     <t>2003;2004</t>
@@ -115,7 +112,7 @@
     <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002|5;2003|5;2004|5</t>
   </si>
   <si>
-    <t>1003|1400;1004|3200</t>
+    <t>1003|2600;1004|2080</t>
   </si>
   <si>
     <t>3001;3002</t>
@@ -130,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -151,7 +148,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -167,6 +164,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -174,8 +222,62 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,111 +290,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -309,13 +306,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,55 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,6 +468,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,97 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +511,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,41 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,9 +586,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,19 +630,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,116 +651,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,7 +771,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1121,12 +1117,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11:G16"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1246,7 +1242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1271,22 +1267,13 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>150</v>
-      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>1500</v>
@@ -1295,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>720</v>
@@ -1306,22 +1293,13 @@
       <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>750</v>
-      </c>
-      <c r="M6" s="2">
-        <v>150</v>
-      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>3200</v>
@@ -1330,10 +1308,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G7" s="2">
         <v>900</v>
@@ -1341,22 +1319,13 @@
       <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M7" s="2">
-        <v>800</v>
-      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>6000</v>
@@ -1365,10 +1334,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="2">
         <v>1080</v>
@@ -1376,22 +1345,13 @@
       <c r="H8" s="2">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1800</v>
-      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>11000</v>
@@ -1400,10 +1360,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G9" s="2">
         <v>1200</v>
@@ -1411,121 +1371,20 @@
       <c r="H9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="2">
-        <v>2800</v>
-      </c>
     </row>
-    <row r="17" spans="12:12">
-      <c r="L17" s="3"/>
+    <row r="19" spans="9:9">
+      <c r="I19" s="3"/>
     </row>
-    <row r="18" spans="12:12">
-      <c r="L18" s="3"/>
+    <row r="24" spans="9:9">
+      <c r="I24" s="3"/>
     </row>
-    <row r="19" spans="9:12">
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+    <row r="29" spans="9:9">
+      <c r="I29" s="3"/>
     </row>
-    <row r="20" spans="10:12">
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="10:12">
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="10:12">
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="10:12">
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="9:12">
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="10:12">
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="10:12">
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="10:12">
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="10:12">
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="9:12">
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="11:12">
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="10:12">
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="11:12">
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="11:12">
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="9:12">
+    <row r="34" spans="9:9">
       <c r="I34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="12:12">
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="10:12">
-      <c r="J36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="12:12">
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="12:12">
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="11:12">
-      <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="K17:L41">
-    <sortCondition ref="K17"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -76,7 +76,7 @@
     <t>Seat</t>
   </si>
   <si>
-    <t>1001|50;1002|15</t>
+    <t>1001|60;1002|30</t>
   </si>
   <si>
     <t>1001;1002</t>
@@ -127,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -147,6 +147,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -155,23 +200,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +224,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -186,38 +246,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,65 +261,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,61 +306,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,121 +468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,16 +516,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +556,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,45 +612,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1122,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -79,19 +79,19 @@
     <t>1001|60;1002|30</t>
   </si>
   <si>
-    <t>1001;1002</t>
-  </si>
-  <si>
-    <t>1001|10;1002|10</t>
+    <t>1001;1002;1003</t>
+  </si>
+  <si>
+    <t>1001|10;1002|10;1003|10</t>
   </si>
   <si>
     <t>1003|150;1002|120</t>
   </si>
   <si>
-    <t>1003;1004</t>
-  </si>
-  <si>
-    <t>1001|10;1002|10;1003|10;1004|10</t>
+    <t>1004;1005</t>
+  </si>
+  <si>
+    <t>1001|10;1002|10;1003|10;1004|10;1005|10</t>
   </si>
   <si>
     <t>1003|600;1002|400</t>
@@ -100,7 +100,7 @@
     <t>2001;2002</t>
   </si>
   <si>
-    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002|5</t>
+    <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2002|15</t>
   </si>
   <si>
     <t>1003|1600;1002|1250</t>
@@ -109,7 +109,7 @@
     <t>2003;2004</t>
   </si>
   <si>
-    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002|5;2003|5;2004|5</t>
+    <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2002|15;2003|15;2004|15</t>
   </si>
   <si>
     <t>1003|2600;1004|2080</t>
@@ -118,7 +118,7 @@
     <t>3001;3002</t>
   </si>
   <si>
-    <t>1001|10;1002|10;1003|10;1004|10;2001|5;2002|5;2003|5;2004|5;3001|5;3002|5</t>
+    <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2002|15;2003|15;2004|15;3001|10;3002|10</t>
   </si>
 </sst>
 </file>
@@ -126,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -147,9 +147,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,31 +161,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +198,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -207,13 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -224,22 +230,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +260,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -275,21 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,31 +306,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,49 +450,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,97 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,47 +511,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,11 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,16 +577,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,17 +1122,17 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7583333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.9083333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="78.0916666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Facility\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA85984-8D56-4397-9036-D4098E5344DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -109,29 +115,25 @@
     <t>2003;2004</t>
   </si>
   <si>
-    <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2002|15;2003|15;2004|15</t>
-  </si>
-  <si>
     <t>1003|2600;1004|2080</t>
   </si>
   <si>
     <t>3001;3002</t>
   </si>
   <si>
-    <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2002|15;2003|15;2004|15;3001|10;3002|10</t>
+    <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2007|15;2003|15;2004|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2007|15;2003|15;2004|15;3001|10;3002|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,151 +149,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,198 +164,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -514,251 +192,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -772,61 +208,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,34 +503,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,7 +633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1268,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1294,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1320,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1337,7 +728,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
         <v>1080</v>
@@ -1346,12 +737,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>11000</v>
@@ -1360,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>33</v>
@@ -1372,21 +763,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="3"/>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I24" s="3"/>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I29" s="3"/>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Facility\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA85984-8D56-4397-9036-D4098E5344DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -82,7 +76,7 @@
     <t>Seat</t>
   </si>
   <si>
-    <t>1001|60;1002|30</t>
+    <t>1001|60;1002|60</t>
   </si>
   <si>
     <t>1001;1002;1003</t>
@@ -91,7 +85,7 @@
     <t>1001|10;1002|10;1003|10</t>
   </si>
   <si>
-    <t>1003|150;1002|120</t>
+    <t>1002|300;1003|150</t>
   </si>
   <si>
     <t>1004;1005</t>
@@ -100,7 +94,7 @@
     <t>1001|10;1002|10;1003|10;1004|10;1005|10</t>
   </si>
   <si>
-    <t>1003|600;1002|400</t>
+    <t>1002|1000;1003|600</t>
   </si>
   <si>
     <t>2001;2002</t>
@@ -109,31 +103,35 @@
     <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2002|15</t>
   </si>
   <si>
-    <t>1003|1600;1002|1250</t>
+    <t>1002|2500;1003|1600</t>
   </si>
   <si>
     <t>2003;2004</t>
   </si>
   <si>
-    <t>1003|2600;1004|2080</t>
+    <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2007|15;2003|15;2004|15</t>
+  </si>
+  <si>
+    <t>1003|2600;1004|2600</t>
   </si>
   <si>
     <t>3001;3002</t>
   </si>
   <si>
-    <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2007|15;2003|15;2004|15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2007|15;2003|15;2004|15;3001|10;3002|10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +147,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +300,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -192,9 +514,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -208,17 +772,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -503,33 +1111,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.4416666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.4416666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.4416666666667" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -581,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -607,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -633,7 +1242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -659,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -685,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -711,7 +1320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -728,7 +1337,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
         <v>1080</v>
@@ -737,12 +1346,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>11000</v>
@@ -751,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>33</v>
@@ -763,21 +1372,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9">
       <c r="I19" s="3"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:9">
       <c r="I24" s="3"/>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:9">
       <c r="I29" s="3"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:9">
       <c r="I34" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -147,68 +147,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,9 +163,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,26 +260,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,22 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,181 +306,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +515,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -533,23 +553,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,31 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1122,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1262,7 +1262,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="2">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="2">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1340,7 +1340,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="2">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -1366,7 +1366,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="2">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>

--- a/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKongfuLibrary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>1001|10;1002|10;1003|10</t>
   </si>
   <si>
-    <t>1002|300;1003|150</t>
+    <t>1002|180;1003|80</t>
   </si>
   <si>
     <t>1004;1005</t>
@@ -94,7 +94,7 @@
     <t>1001|10;1002|10;1003|10;1004|10;1005|10</t>
   </si>
   <si>
-    <t>1002|1000;1003|600</t>
+    <t>1002|400;1003|250</t>
   </si>
   <si>
     <t>2001;2002</t>
@@ -103,7 +103,7 @@
     <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2002|15</t>
   </si>
   <si>
-    <t>1002|2500;1003|1600</t>
+    <t>1002|1200;1003|800</t>
   </si>
   <si>
     <t>2003;2004</t>
@@ -112,7 +112,7 @@
     <t>1001|10;1002|10;1003|10;1004|10;1005|10;2001|15;2007|15;2003|15;2004|15</t>
   </si>
   <si>
-    <t>1003|2600;1004|2600</t>
+    <t>1003|2000;1004|2000</t>
   </si>
   <si>
     <t>3001;3002</t>
@@ -127,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -147,7 +147,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -164,7 +170,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -179,13 +185,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,37 +192,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +230,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -253,7 +276,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -263,29 +286,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,17 +511,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,11 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +578,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,17 +604,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1122,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
